--- a/DriftSurvey.xlsx
+++ b/DriftSurvey.xlsx
@@ -16,14 +16,14 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$T$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$T$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
   <si>
     <t>explanations</t>
   </si>
@@ -92,240 +92,367 @@
     <t>note</t>
   </si>
   <si>
-    <t>intro</t>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>no impact</t>
+  </si>
+  <si>
+    <t>low impact</t>
+  </si>
+  <si>
+    <t>moderate impact</t>
+  </si>
+  <si>
+    <t>significant impact</t>
+  </si>
+  <si>
+    <t>error_likert</t>
+  </si>
+  <si>
+    <t>left500</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>Dominant_Hand</t>
+  </si>
+  <si>
+    <t>## Background</t>
+  </si>
+  <si>
+    <t>## ID Number</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>submit1</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>### Which is your dominant eye?</t>
+  </si>
+  <si>
+    <t>Dominant_Eye</t>
+  </si>
+  <si>
+    <t>### Which foot do you kick a soccer ball?</t>
+  </si>
+  <si>
+    <t>Dominant_Foot</t>
+  </si>
+  <si>
+    <t>center-hold</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>### In which hand do you hold your compass while following an azimuth?</t>
+  </si>
+  <si>
+    <t>CompassHand</t>
+  </si>
+  <si>
+    <t>compass-to-cheek</t>
+  </si>
+  <si>
+    <t>### Select which technique you used when shooting an azimuth?</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>### In meters, approximately how far did you drift from designated point?</t>
+  </si>
+  <si>
+    <t>Leg6</t>
+  </si>
+  <si>
+    <t>note6</t>
+  </si>
+  <si>
+    <t>Leg5</t>
+  </si>
+  <si>
+    <t>note5</t>
+  </si>
+  <si>
+    <t>Leg4</t>
+  </si>
+  <si>
+    <t>note4</t>
+  </si>
+  <si>
+    <t>Leg3</t>
+  </si>
+  <si>
+    <t>note3</t>
+  </si>
+  <si>
+    <t>Leg2</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>Leg1</t>
+  </si>
+  <si>
+    <t>submit6</t>
+  </si>
+  <si>
+    <t>error_other</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>note8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### terrain slope </t>
+  </si>
+  <si>
+    <t>error_terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### obstacles such as trees or bushes  </t>
+  </si>
+  <si>
+    <t>error_obstacles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### natural tendency to drift </t>
+  </si>
+  <si>
+    <t>error_drift</t>
+  </si>
+  <si>
+    <t>note7</t>
+  </si>
+  <si>
+    <t>submit4</t>
   </si>
   <si>
     <t>## Drift Course Questionnaire 
-### Please complete the questionnaire following completion of the drift course</t>
-  </si>
-  <si>
-    <t>mc_button</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>Technique</t>
-  </si>
-  <si>
-    <t>center-hold</t>
-  </si>
-  <si>
-    <t>CompassHand</t>
-  </si>
-  <si>
-    <t>### In which hand do you hold your compass while following an azimuth?</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>### Which foot do you kick a soccer ball?</t>
-  </si>
-  <si>
-    <t>### Which is your dominant eye?</t>
-  </si>
-  <si>
-    <t>unsure</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>###Which is your dominant hand?</t>
-  </si>
-  <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>### In meters, approximately how far did you drift from designated point?</t>
-  </si>
-  <si>
-    <t>range_ticks -20,20,0</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>## ID Number</t>
-  </si>
-  <si>
-    <t>text 5</t>
-  </si>
-  <si>
-    <t>### Select which technique you used when shooting an azimuth?</t>
-  </si>
-  <si>
-    <t>compass-to-cheek</t>
-  </si>
-  <si>
-    <t>## Leg #1: Blind fold</t>
-  </si>
-  <si>
-    <t>## Leg #2: Blind fold</t>
-  </si>
-  <si>
-    <t>## Leg #3</t>
-  </si>
-  <si>
-    <t>## Leg #4</t>
-  </si>
-  <si>
-    <t>Leg1</t>
-  </si>
-  <si>
-    <t>Leg2</t>
-  </si>
-  <si>
-    <t>Leg3</t>
-  </si>
-  <si>
-    <t>Leg4</t>
-  </si>
-  <si>
-    <t>Leg5</t>
-  </si>
-  <si>
-    <t>## Leg #5</t>
-  </si>
-  <si>
-    <t>Leg6</t>
-  </si>
-  <si>
-    <t>## Leg #6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">## Dead reckoning errors
-### Based on your experience today, rate the extent to which *natural drift* or the *following conditions* contributed to error in your dead reckoning.
-</t>
-  </si>
-  <si>
-    <t>no impact</t>
-  </si>
-  <si>
-    <t>low impact</t>
-  </si>
-  <si>
-    <t>moderate impact</t>
-  </si>
-  <si>
-    <t>significant impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">### natural tendency to drift </t>
-  </si>
-  <si>
-    <t xml:space="preserve">### obstacles such as trees or bushes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">### terrain slope </t>
-  </si>
-  <si>
-    <t xml:space="preserve">### mechanics of shooting and following an azimuth </t>
-  </si>
-  <si>
-    <t>page4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">## Other errors
-</t>
-  </si>
-  <si>
-    <t>### Please describe any additional reasons that account for your dead reckoning error?</t>
-  </si>
-  <si>
-    <t>textarea 100</t>
-  </si>
-  <si>
-    <t>error_other</t>
-  </si>
-  <si>
-    <t>error_drift</t>
-  </si>
-  <si>
-    <t>error_obstacles</t>
-  </si>
-  <si>
-    <t>error_terrain</t>
-  </si>
-  <si>
-    <t>error_mechanics</t>
+Please complete the questionnaire following completion of the drift course</t>
+  </si>
+  <si>
+    <t>reference_id</t>
+  </si>
+  <si>
+    <t>error_technique</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>error_likert</t>
-  </si>
-  <si>
-    <t>mc_button error_likert</t>
-  </si>
-  <si>
-    <t>## Background</t>
-  </si>
-  <si>
-    <t>Dominant_Hand</t>
-  </si>
-  <si>
-    <t>Dominant_Foot</t>
-  </si>
-  <si>
-    <t>Dominant_Eye</t>
-  </si>
-  <si>
-    <t>note1</t>
-  </si>
-  <si>
-    <t>note2</t>
-  </si>
-  <si>
-    <t>note3</t>
-  </si>
-  <si>
-    <t>note4</t>
-  </si>
-  <si>
-    <t>note5</t>
-  </si>
-  <si>
-    <t>note6</t>
-  </si>
-  <si>
-    <t>note7</t>
-  </si>
-  <si>
-    <t>note8</t>
-  </si>
-  <si>
-    <t>submit1</t>
-  </si>
-  <si>
-    <t>submit2</t>
-  </si>
-  <si>
-    <t>submit3</t>
-  </si>
-  <si>
-    <t>submit4</t>
-  </si>
-  <si>
-    <t>submit5</t>
+    <t xml:space="preserve">### techniques of shooting &amp;following an azimuth </t>
+  </si>
+  <si>
+    <t>mc_button error_likert</t>
+  </si>
+  <si>
+    <t>dominant</t>
+  </si>
+  <si>
+    <t>mc_button dominant</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>mc_button technique</t>
+  </si>
+  <si>
+    <t>compasshand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mc_button compasshand  </t>
+  </si>
+  <si>
+    <t>### Which is your dominant hand?</t>
+  </si>
+  <si>
+    <t>check_button</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>check1</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>check1 == 1</t>
+  </si>
+  <si>
+    <t>check2</t>
+  </si>
+  <si>
+    <t>check3</t>
+  </si>
+  <si>
+    <t>check4</t>
+  </si>
+  <si>
+    <t>check5</t>
+  </si>
+  <si>
+    <t>check6</t>
+  </si>
+  <si>
+    <t>check2 == 1</t>
+  </si>
+  <si>
+    <t>check3 == 1</t>
+  </si>
+  <si>
+    <t>check4 == 1</t>
+  </si>
+  <si>
+    <t>check5 == 1</t>
+  </si>
+  <si>
+    <t>check6 == 1</t>
+  </si>
+  <si>
+    <t>error_scale</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>mc_button 
+error_scale</t>
+  </si>
+  <si>
+    <t>R20+</t>
+  </si>
+  <si>
+    <t>L20+</t>
+  </si>
+  <si>
+    <t>left0</t>
+  </si>
+  <si>
+    <t>## Dead reckoning errors
+### Based on your experience today, rate the extent to which *natural drift* or these *conditions* contributed to your dead reckoning error.</t>
+  </si>
+  <si>
+    <t>## Other errors
+### Please describe any additional reasons that account for your dead reckoning error?</t>
+  </si>
+  <si>
+    <t>## Leg 1 (blind fold)</t>
+  </si>
+  <si>
+    <t>## Leg 2 (blind fold)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Leg 3 </t>
+  </si>
+  <si>
+    <t>## Leg 4</t>
+  </si>
+  <si>
+    <t>## Leg 5</t>
+  </si>
+  <si>
+    <t>## Leg 6</t>
+  </si>
+  <si>
+    <t>note9</t>
+  </si>
+  <si>
+    <t>note10</t>
+  </si>
+  <si>
+    <t>### Please select the trials for data entry.
+#### ("L" = drift error Left; "R" = drift error Right)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -349,17 +476,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -386,10 +503,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -407,14 +528,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,13 +588,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,71 +603,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -825,23 +984,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.09765625" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="4.8984375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="23.09765625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="43.296875" style="30" customWidth="1"/>
-    <col min="8" max="14" width="10.796875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="4.8984375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.09765625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="43.296875" style="23" customWidth="1"/>
+    <col min="8" max="14" width="10.796875" style="23" customWidth="1"/>
     <col min="15" max="20" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,40 +1011,40 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -915,13 +1074,15 @@
       <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E2" s="19" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -939,22 +1100,23 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="D3" s="31"/>
       <c r="E3" s="19" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -968,19 +1130,20 @@
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="31"/>
       <c r="E4" s="19" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="21" t="s">
-        <v>80</v>
+      <c r="G4" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
@@ -991,30 +1154,25 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -1027,24 +1185,22 @@
     </row>
     <row r="6" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="31"/>
       <c r="E6" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -1059,30 +1215,24 @@
     </row>
     <row r="7" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="D7" s="31"/>
       <c r="E7" s="19" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -1093,29 +1243,25 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21" t="s">
         <v>82</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>34</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -1127,29 +1273,25 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>34</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -1163,21 +1305,25 @@
     </row>
     <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
@@ -1189,23 +1335,25 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="D11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
@@ -1217,55 +1365,55 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="19"/>
+      <c r="C12" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="D13" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
@@ -1277,28 +1425,26 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="19"/>
+    <row r="14" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -1309,24 +1455,22 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
-        <v>39</v>
+      <c r="C15" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -1337,23 +1481,26 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="29"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -1366,24 +1513,24 @@
     </row>
     <row r="17" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>26</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -1399,17 +1546,17 @@
     <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="C18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="29"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -1423,26 +1570,25 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="C19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -1455,20 +1601,24 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23" t="s">
-        <v>39</v>
-      </c>
+    <row r="20" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="29"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -1476,27 +1626,26 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21" t="s">
-        <v>56</v>
-      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="29"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -1513,23 +1662,22 @@
     <row r="22" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="C22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -1542,20 +1690,24 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="B23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="29"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -1567,28 +1719,23 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="C24" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -1601,21 +1748,24 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -1629,21 +1779,24 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="19"/>
+      <c r="B26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="29"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -1657,131 +1810,142 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
     </row>
     <row r="28" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="19"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E29" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" ht="78" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23" t="s">
-        <v>39</v>
+      <c r="C31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1798,81 +1962,91 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C32" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C33" s="19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
@@ -1883,18 +2057,28 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+    <row r="35" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="G35" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
@@ -1905,14 +2089,24 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+    <row r="36" spans="1:20" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="27" t="s">
+        <v>129</v>
+      </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -1920,21 +2114,31 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="B37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
@@ -1949,9 +2153,9 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -2015,9 +2219,9 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A41" s="7"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -2283,11 +2487,11 @@
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
@@ -2305,11 +2509,11 @@
       <c r="A54" s="7"/>
       <c r="B54" s="5"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="32"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
@@ -2327,11 +2531,11 @@
       <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="19"/>
-      <c r="D55" s="32"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
@@ -2349,11 +2553,11 @@
       <c r="A56" s="7"/>
       <c r="B56" s="5"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
@@ -2371,11 +2575,11 @@
       <c r="A57" s="7"/>
       <c r="B57" s="5"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
@@ -2393,11 +2597,11 @@
       <c r="A58" s="7"/>
       <c r="B58" s="5"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -2415,11 +2619,11 @@
       <c r="A59" s="7"/>
       <c r="B59" s="5"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
@@ -2434,7 +2638,7 @@
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="5"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -2456,11 +2660,11 @@
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="33"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
@@ -2475,7 +2679,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="6"/>
+      <c r="T61" s="5"/>
     </row>
     <row r="62" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
@@ -2526,7 +2730,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
@@ -2541,7 +2745,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+      <c r="T64" s="6"/>
     </row>
     <row r="65" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
@@ -2566,7 +2770,7 @@
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="5"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
@@ -2588,7 +2792,7 @@
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="5"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -2611,7 +2815,7 @@
     </row>
     <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -2632,8 +2836,8 @@
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -2655,7 +2859,7 @@
     </row>
     <row r="70" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
@@ -2677,7 +2881,7 @@
     </row>
     <row r="71" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -2698,8 +2902,8 @@
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -2721,7 +2925,7 @@
     </row>
     <row r="73" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -2939,7 +3143,93 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
     </row>
+    <row r="83" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G22 G25 G1:G20 G30:G1048576 G28">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="next">
+      <formula>NOT(ISERROR(SEARCH("next",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="next">
+      <formula>NOT(ISERROR(SEARCH("next",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="next">
+      <formula>NOT(ISERROR(SEARCH("next",G24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="next">
+      <formula>NOT(ISERROR(SEARCH("next",G27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2950,11 +3240,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2970,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>4</v>
@@ -2982,49 +3272,43 @@
     <row r="2" spans="1:4" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="20" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C2" s="13">
         <v>0</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="B3" s="20"/>
       <c r="C3" s="13">
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
-      <c r="B4" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="B4" s="20"/>
       <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="14">
         <v>3</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3035,39 +3319,63 @@
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -3077,27 +3385,45 @@
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
@@ -3107,15 +3433,25 @@
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
@@ -3125,9 +3461,175 @@
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="16">
+        <v>-20</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>-18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="16">
+        <v>-16</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>-14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="16">
+        <v>-12</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>-10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="16">
+        <v>-8</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>-6</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="16">
+        <v>-4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="16">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="16">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="16">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="16">
+        <v>16</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="16">
+        <v>20</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
